--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\insper\5 semestre\termosol\termosol\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66933992-9ADF-41E1-8829-1620A289514F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nos" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Incidencia" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Carregamento" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Restricao" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Nos" sheetId="1" r:id="rId1"/>
+    <sheet name="Incidencia" sheetId="2" r:id="rId2"/>
+    <sheet name="Carregamento" sheetId="3" r:id="rId3"/>
+    <sheet name="Restricao" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,54 +38,50 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
-    <t xml:space="preserve">x [m]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y [m]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de nós</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nó 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nó 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E [Pa]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A [m²]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de membros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 = x               2 = y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carga [N]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de cargas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de apoios</t>
+    <t>x [m]</t>
+  </si>
+  <si>
+    <t>y [m]</t>
+  </si>
+  <si>
+    <t>Número de nós</t>
+  </si>
+  <si>
+    <t>nó 1</t>
+  </si>
+  <si>
+    <t>nó 2</t>
+  </si>
+  <si>
+    <t>E [Pa]</t>
+  </si>
+  <si>
+    <t>A [m²]</t>
+  </si>
+  <si>
+    <t>Número de membros</t>
+  </si>
+  <si>
+    <t>nó</t>
+  </si>
+  <si>
+    <t>1 = x               2 = y</t>
+  </si>
+  <si>
+    <t>Carga [N]</t>
+  </si>
+  <si>
+    <t>Número de cargas</t>
+  </si>
+  <si>
+    <t>Número de apoios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,22 +90,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -119,96 +113,67 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -267,29 +232,337 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col min="1" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -301,69 +574,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="n">
-        <f aca="false">COUNT(A2:A1048576)</f>
+      <c r="D2" s="5">
+        <f>COUNT(A2:A1048576)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>0.4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>0.3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>0.4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="6" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.53"/>
+    <col min="1" max="2" width="11.6328125" style="6" customWidth="1"/>
+    <col min="3" max="7" width="11.6328125" customWidth="1"/>
+    <col min="8" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -381,85 +646,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>0.0002</v>
+      <c r="C2" s="8">
+        <v>210000000000</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="9" t="n">
-        <f aca="false">COUNT(A2:A1048576)</f>
+      <c r="F2" s="9">
+        <f>COUNT(A2:A1048576)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>210000000000</v>
       </c>
-      <c r="D3" s="8" t="n">
-        <v>0.0002</v>
+      <c r="D3" s="8">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>210000000000</v>
       </c>
-      <c r="D4" s="8" t="n">
-        <v>0.0002</v>
+      <c r="D4" s="8">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
+    <col min="1" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -474,64 +731,56 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>150</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="5" t="n">
-        <f aca="false">COUNT(A2:A1048576)</f>
+      <c r="E2" s="5">
+        <f>COUNT(A2:A1048576)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>-100</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
+    <col min="1" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -543,46 +792,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="n">
-        <f aca="false">COUNT(A2:A1048576)</f>
+      <c r="D2" s="5">
+        <f>COUNT(A2:A1048576)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22812"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\insper\5 semestre\termosol\termosol\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66933992-9ADF-41E1-8829-1620A289514F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C44E37E6940ED0A64E9187C553ACFDBF04E6BFCC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="Carregamento" sheetId="3" r:id="rId3"/>
     <sheet name="Restricao" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -81,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +159,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -550,19 +548,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="13.9">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -584,28 +582,130 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.9">
       <c r="A3" s="4">
-        <v>0</v>
+        <f>50/1000</f>
+        <v>0.05</v>
       </c>
       <c r="B3" s="4">
-        <v>0.4</v>
+        <f>75.5/1000</f>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="13.9">
       <c r="A4" s="4">
-        <v>0.3</v>
+        <f>50/1000</f>
+        <v>0.05</v>
       </c>
       <c r="B4" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.9">
+      <c r="A5" s="6">
+        <f>130/1000</f>
+        <v>0.13</v>
+      </c>
+      <c r="B5" s="4">
+        <f>75.5/1000</f>
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.9">
+      <c r="A6" s="6">
+        <f>130/1000</f>
+        <v>0.13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.9">
+      <c r="A7" s="6">
+        <f>210/1000</f>
+        <v>0.21</v>
+      </c>
+      <c r="B7" s="4">
+        <f>75.5/1000</f>
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.9">
+      <c r="A8" s="6">
+        <f>210/1000</f>
+        <v>0.21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.9">
+      <c r="A9" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B9" s="4">
+        <f>75.5/1000</f>
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.9">
+      <c r="A10" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.9">
+      <c r="A11" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="B11" s="4">
+        <f>75.5/1000</f>
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.9">
+      <c r="A12" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.9">
+      <c r="A13" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="B13" s="4">
+        <f>75.5/1000</f>
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.9">
+      <c r="A14" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.9">
+      <c r="A15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -615,20 +715,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:AMK1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="2" width="11.6328125" style="6" customWidth="1"/>
-    <col min="3" max="7" width="11.6328125" customWidth="1"/>
-    <col min="8" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="7" width="11.5703125" style="6" customWidth="1"/>
+    <col min="8" max="1025" width="8.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="27.95" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -646,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -654,18 +753,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="8">
-        <v>210000000000</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="9">
+        <v>4000000000</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="F2" s="10">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.85">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -673,29 +771,281 @@
         <v>3</v>
       </c>
       <c r="C3" s="8">
-        <v>210000000000</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4000000000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>210000000000</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="6">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="6">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="6">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.85">
+      <c r="A20" s="6">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="6">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="6">
+        <v>12</v>
+      </c>
+      <c r="B22" s="6">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4000000000</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="1048575" ht="12.75"/>
+    <row r="1048576" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -707,16 +1057,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="27.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -731,15 +1081,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>150</v>
+        <v>-75</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5">
@@ -747,15 +1097,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="13.9">
       <c r="A3" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>-100</v>
+        <v>-75</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -768,19 +1118,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -792,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -802,31 +1152,196 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.9">
       <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
         <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="13.9">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
+    </row>
+    <row r="5" spans="1:4" ht="13.9">
+      <c r="A5" s="4">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.9">
+      <c r="A6" s="4">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.9">
+      <c r="A7" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048575" ht="12.75"/>
+    <row r="1048576" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064864F282976314B89D15DAB2B6734B2" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="392710621d90f4b0b80139e8db82fbe7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A196AA7E-5C06-4ECE-940D-0792037A9F2A}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{409B953E-F119-45CD-A97F-DE407CADC1A1}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33A8FD61-D3B9-4F89-9023-38D5997F138B}"/>
 </file>